--- a/backend/excel/data.xlsx
+++ b/backend/excel/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\74402\repo\sanyedu\dice-race\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13A2D65-7849-4710-9BAA-397705BA28D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCA0B81-B27D-461F-9F18-CBD68CADAFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11836" activeTab="2" xr2:uid="{E2C1C5F5-3AF8-401F-B953-6C5240D853D1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="3" xr2:uid="{E2C1C5F5-3AF8-401F-B953-6C5240D853D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2305" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="282">
   <si>
     <t>学号</t>
   </si>
@@ -916,6 +916,10 @@
   </si>
   <si>
     <t>屈赳赳</t>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3763,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF63388-EEFC-40EE-BBA0-94A278B09CD7}">
   <dimension ref="A1:BI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -4269,10 +4273,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486767C6-8DA0-48B9-B5BD-EC6D399CBB92}">
-  <dimension ref="A1:BL34"/>
+  <dimension ref="A1:BL37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -4410,6 +4414,12 @@
       <c r="B4" s="18" t="s">
         <v>220</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:64">
       <c r="A5" s="18" t="s">
@@ -4434,6 +4444,12 @@
       <c r="B7" s="18" t="s">
         <v>226</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:64">
       <c r="A8" s="18" t="s">
@@ -4450,6 +4466,12 @@
       <c r="B9" s="18" t="s">
         <v>230</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:64">
       <c r="A10" s="18" t="s">
@@ -4474,6 +4496,15 @@
       <c r="B12" s="18" t="s">
         <v>236</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:64">
       <c r="A13" s="18" t="s">
@@ -4482,6 +4513,9 @@
       <c r="B13" s="18" t="s">
         <v>238</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:64">
       <c r="A14" s="18" t="s">
@@ -4490,7 +4524,15 @@
       <c r="B14" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:64">
       <c r="A15" s="18" t="s">
@@ -4499,6 +4541,9 @@
       <c r="B15" s="18" t="s">
         <v>242</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:64">
       <c r="A16" s="18" t="s">
@@ -4507,8 +4552,17 @@
       <c r="B16" s="18" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="18" t="s">
         <v>245</v>
       </c>
@@ -4517,15 +4571,24 @@
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:5">
       <c r="A18" s="18" t="s">
         <v>247</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="18" t="s">
         <v>249</v>
       </c>
@@ -4533,7 +4596,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:5">
       <c r="A20" s="18" t="s">
         <v>251</v>
       </c>
@@ -4541,7 +4604,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:5">
       <c r="A21" s="18" t="s">
         <v>253</v>
       </c>
@@ -4549,7 +4612,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:5">
       <c r="A22" s="18" t="s">
         <v>255</v>
       </c>
@@ -4557,7 +4620,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:5">
       <c r="A23" s="18" t="s">
         <v>257</v>
       </c>
@@ -4565,7 +4628,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:5">
       <c r="A24" s="18" t="s">
         <v>259</v>
       </c>
@@ -4573,23 +4636,29 @@
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:5">
       <c r="A25" s="18" t="s">
         <v>261</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="19" t="s">
         <v>263</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="18" t="s">
         <v>265</v>
       </c>
@@ -4598,7 +4667,7 @@
       </c>
       <c r="C27" s="10"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:5">
       <c r="A28" s="18" t="s">
         <v>267</v>
       </c>
@@ -4606,24 +4675,32 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:5">
       <c r="A29" s="18" t="s">
         <v>269</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="18" t="s">
         <v>271</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="18" t="s">
         <v>273</v>
       </c>
@@ -4631,7 +4708,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:5">
       <c r="A32" s="18" t="s">
         <v>275</v>
       </c>
@@ -4640,20 +4717,46 @@
       </c>
       <c r="C32" s="10"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:5">
       <c r="A33" s="18" t="s">
         <v>277</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="18" t="s">
         <v>279</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>280</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C37">
+        <f>SUM(C2:C34)</f>
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:E37" si="0">SUM(D2:D34)</f>
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
